--- a/Manuscript/Visualization/Fig5/Source_data_Figure5.xlsx
+++ b/Manuscript/Visualization/Fig5/Source_data_Figure5.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be17a8240fc13af6/桌面/benchmarking/Github/upload_to_github/Visualization/Fig5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be17a8240fc13af6/桌面/benchmarking/Nature_method/form_coauthors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_AD4DA82427541F7ACA7EB8FC280F3BFC6AE8DE12" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{332ACE0E-526F-4451-A6EE-448EF46F7549}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_AD4DA82427541F7ACA7EB8FC280F3BFC6AE8DE12" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F2F2E070-B71D-4975-AFBB-B91404621D48}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fig.5" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -755,7 +755,7 @@
   <dimension ref="A1:K1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
